--- a/data_output/output for F24 stiff 2018-01-18 youngs modulus/all_stiff_output_20180118_1246 SOL.xlsx
+++ b/data_output/output for F24 stiff 2018-01-18 youngs modulus/all_stiff_output_20180118_1246 SOL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\output for F24 stiff 2018-01-18 youngs modulus\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +161,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,14 +191,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nøytral" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,11 +481,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:AJ85"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="17" width="6" style="1"/>
+    <col min="21" max="21" width="6" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -521,7 +540,7 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
@@ -533,7 +552,7 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" t="s">
@@ -631,7 +650,7 @@
       <c r="P2">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>830.84249202362389</v>
       </c>
       <c r="R2">
@@ -643,7 +662,7 @@
       <c r="T2">
         <v>604.32258110241696</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>659.74633574725237</v>
       </c>
       <c r="V2">
@@ -741,7 +760,7 @@
       <c r="P3">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>503.98865918162022</v>
       </c>
       <c r="R3">
@@ -753,7 +772,7 @@
       <c r="T3">
         <v>372.67920595073264</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>404.61676412014361</v>
       </c>
       <c r="V3">
@@ -851,7 +870,7 @@
       <c r="P4">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>497.15158658048887</v>
       </c>
       <c r="R4">
@@ -863,7 +882,7 @@
       <c r="T4">
         <v>396.0681381890908</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>426.16253430866254</v>
       </c>
       <c r="V4">
@@ -961,7 +980,7 @@
       <c r="P5">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>420.50147009722758</v>
       </c>
       <c r="R5">
@@ -973,7 +992,7 @@
       <c r="T5">
         <v>347.39125356273496</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>368.9028600358223</v>
       </c>
       <c r="V5">
@@ -1071,7 +1090,7 @@
       <c r="P6">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>362.44331788322353</v>
       </c>
       <c r="R6">
@@ -1083,7 +1102,7 @@
       <c r="T6">
         <v>333.83931243258684</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>356.70735937472574</v>
       </c>
       <c r="V6">
@@ -1181,7 +1200,7 @@
       <c r="P7">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>379.26301818803222</v>
       </c>
       <c r="R7">
@@ -1193,7 +1212,7 @@
       <c r="T7">
         <v>342.45429148528189</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>371.92374562430132</v>
       </c>
       <c r="V7">
@@ -1291,7 +1310,7 @@
       <c r="P8">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>356.98098818240544</v>
       </c>
       <c r="R8">
@@ -1303,7 +1322,7 @@
       <c r="T8">
         <v>315.38612844802162</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>340.71026544615933</v>
       </c>
       <c r="V8">
@@ -1401,7 +1420,7 @@
       <c r="P9">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>428.71862483315084</v>
       </c>
       <c r="R9">
@@ -1413,7 +1432,7 @@
       <c r="T9">
         <v>373.91657311926031</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>407.34690626659716</v>
       </c>
       <c r="V9">
@@ -1511,7 +1530,7 @@
       <c r="P10">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>394.04964792081608</v>
       </c>
       <c r="R10">
@@ -1523,7 +1542,7 @@
       <c r="T10">
         <v>323.30013004852918</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>344.16390759823003</v>
       </c>
       <c r="V10">
@@ -1621,7 +1640,7 @@
       <c r="P11">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>469.17381250314577</v>
       </c>
       <c r="R11">
@@ -1633,7 +1652,7 @@
       <c r="T11">
         <v>370.06213570575085</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>399.664660312661</v>
       </c>
       <c r="V11">
@@ -1731,7 +1750,7 @@
       <c r="P12">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>452.37046867297767</v>
       </c>
       <c r="R12">
@@ -1743,7 +1762,7 @@
       <c r="T12">
         <v>361.69182031196488</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>393.326068120591</v>
       </c>
       <c r="V12">
@@ -1841,7 +1860,7 @@
       <c r="P13">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>434.91607080363178</v>
       </c>
       <c r="R13">
@@ -1853,7 +1872,7 @@
       <c r="T13">
         <v>359.50101704911913</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <v>385.55708946471833</v>
       </c>
       <c r="V13">
@@ -1951,7 +1970,7 @@
       <c r="P14">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>665.28329649538773</v>
       </c>
       <c r="R14">
@@ -1963,7 +1982,7 @@
       <c r="T14">
         <v>506.55366005331308</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>549.77198132051615</v>
       </c>
       <c r="V14">
@@ -2061,7 +2080,7 @@
       <c r="P15">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>582.8618391194675</v>
       </c>
       <c r="R15">
@@ -2073,7 +2092,7 @@
       <c r="T15">
         <v>440.35876941453785</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>479.26157262418616</v>
       </c>
       <c r="V15">
@@ -2171,7 +2190,7 @@
       <c r="P16">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>696.74400607200914</v>
       </c>
       <c r="R16">
@@ -2183,7 +2202,7 @@
       <c r="T16">
         <v>509.09990965178002</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <v>552.44104216219364</v>
       </c>
       <c r="V16">
@@ -2281,7 +2300,7 @@
       <c r="P17">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>662.05046085147092</v>
       </c>
       <c r="R17">
@@ -2293,7 +2312,7 @@
       <c r="T17">
         <v>483.01803001181349</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <v>524.39328803867841</v>
       </c>
       <c r="V17">
@@ -2391,7 +2410,7 @@
       <c r="P18">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>442.6476355102713</v>
       </c>
       <c r="R18">
@@ -2403,7 +2422,7 @@
       <c r="T18">
         <v>450.58066874972224</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <v>447.60114536307776</v>
       </c>
       <c r="V18">
@@ -2501,7 +2520,7 @@
       <c r="P19">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>476.6952539041954</v>
       </c>
       <c r="R19">
@@ -2513,7 +2532,7 @@
       <c r="T19">
         <v>398.02734317611521</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="1">
         <v>429.22351524410033</v>
       </c>
       <c r="V19">
@@ -2611,7 +2630,7 @@
       <c r="P20">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>320.96481009950475</v>
       </c>
       <c r="R20">
@@ -2623,7 +2642,7 @@
       <c r="T20">
         <v>298.14926539741958</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="1">
         <v>307.42101590387534</v>
       </c>
       <c r="V20">
@@ -2721,7 +2740,7 @@
       <c r="P21">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>374.93322906492261</v>
       </c>
       <c r="R21">
@@ -2733,7 +2752,7 @@
       <c r="T21">
         <v>321.72797606874053</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <v>343.79586056591893</v>
       </c>
       <c r="V21">
@@ -2831,7 +2850,7 @@
       <c r="P22">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>655.08281341338625</v>
       </c>
       <c r="R22">
@@ -2843,7 +2862,7 @@
       <c r="T22">
         <v>497.22817545568984</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <v>534.18930459310525</v>
       </c>
       <c r="V22">
@@ -2941,7 +2960,7 @@
       <c r="P23">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>579.77014622344552</v>
       </c>
       <c r="R23">
@@ -2953,7 +2972,7 @@
       <c r="T23">
         <v>423.03442871751145</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="1">
         <v>460.26845037386693</v>
       </c>
       <c r="V23">
@@ -3051,7 +3070,7 @@
       <c r="P24">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>991.15402744726362</v>
       </c>
       <c r="R24">
@@ -3063,7 +3082,7 @@
       <c r="T24">
         <v>751.37108401087357</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="1">
         <v>818.97576639322153</v>
       </c>
       <c r="V24">
@@ -3161,7 +3180,7 @@
       <c r="P25">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>870.21512894679881</v>
       </c>
       <c r="R25">
@@ -3173,7 +3192,7 @@
       <c r="T25">
         <v>656.92257614465927</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="1">
         <v>717.14270525672737</v>
       </c>
       <c r="V25">
@@ -3271,7 +3290,7 @@
       <c r="P26">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>494.91407799855909</v>
       </c>
       <c r="R26">
@@ -3283,7 +3302,7 @@
       <c r="T26">
         <v>427.45352040683179</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <v>465.63360284434265</v>
       </c>
       <c r="V26">
@@ -3381,7 +3400,7 @@
       <c r="P27">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>472.65985010478255</v>
       </c>
       <c r="R27">
@@ -3393,7 +3412,7 @@
       <c r="T27">
         <v>408.51286368551951</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="1">
         <v>444.81331862190797</v>
       </c>
       <c r="V27">
@@ -3491,7 +3510,7 @@
       <c r="P28">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>455.95599601882338</v>
       </c>
       <c r="R28">
@@ -3503,7 +3522,7 @@
       <c r="T28">
         <v>379.04413783057919</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <v>413.00244461026028</v>
       </c>
       <c r="V28">
@@ -3601,7 +3620,7 @@
       <c r="P29">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>486.00199475134286</v>
       </c>
       <c r="R29">
@@ -3613,7 +3632,7 @@
       <c r="T29">
         <v>403.38110815236871</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <v>439.87369108016958</v>
       </c>
       <c r="V29">
@@ -3711,7 +3730,7 @@
       <c r="P30">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>524.81539057124348</v>
       </c>
       <c r="R30">
@@ -3723,7 +3742,7 @@
       <c r="T30">
         <v>437.81810824396354</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>474.15798299785695</v>
       </c>
       <c r="V30">
@@ -3821,7 +3840,7 @@
       <c r="P31">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="1">
         <v>486.53722189557203</v>
       </c>
       <c r="R31">
@@ -3833,7 +3852,7 @@
       <c r="T31">
         <v>411.46369258546736</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1">
         <v>442.71607218891722</v>
       </c>
       <c r="V31">
@@ -3931,7 +3950,7 @@
       <c r="P32">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="1">
         <v>424.41789923490461</v>
       </c>
       <c r="R32">
@@ -3943,7 +3962,7 @@
       <c r="T32">
         <v>326.24365520410902</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="1">
         <v>352.88786821401442</v>
       </c>
       <c r="V32">
@@ -4041,7 +4060,7 @@
       <c r="P33">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="1">
         <v>524.67671862319662</v>
       </c>
       <c r="R33">
@@ -4053,7 +4072,7 @@
       <c r="T33">
         <v>399.88225690054992</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="1">
         <v>433.84962903161642</v>
       </c>
       <c r="V33">
@@ -4151,7 +4170,7 @@
       <c r="P34">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="1">
         <v>306.46647717987315</v>
       </c>
       <c r="R34">
@@ -4163,7 +4182,7 @@
       <c r="T34">
         <v>252.80139499387982</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="1">
         <v>270.57864216594004</v>
       </c>
       <c r="V34">
@@ -4261,7 +4280,7 @@
       <c r="P35">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="1">
         <v>411.21647160078419</v>
       </c>
       <c r="R35">
@@ -4273,7 +4292,7 @@
       <c r="T35">
         <v>325.52582290705408</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="1">
         <v>354.2640801457469</v>
       </c>
       <c r="V35">
@@ -4371,7 +4390,7 @@
       <c r="P36">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>401.65997391830007</v>
       </c>
       <c r="R36">
@@ -4383,7 +4402,7 @@
       <c r="T36">
         <v>334.48687980413604</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="1">
         <v>361.14319559768097</v>
       </c>
       <c r="V36">
@@ -4481,7 +4500,7 @@
       <c r="P37">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="1">
         <v>389.63679223118839</v>
       </c>
       <c r="R37">
@@ -4493,7 +4512,7 @@
       <c r="T37">
         <v>332.36028277609807</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="1">
         <v>354.94640643176314</v>
       </c>
       <c r="V37">
@@ -4542,443 +4561,443 @@
         <v>0.89132999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>13</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>5.5166681099999997E-2</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
         <v>47.168521786346091</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>201.22520707331611</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
         <v>0.9958144301732309</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>4150</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <v>4638.5140357618393</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>4600</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <v>5038.7556635617384</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="1">
         <v>1750</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="1">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="1">
         <v>862.04801558885492</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>885.35322418940314</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="1">
         <v>580.38276481348021</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="1">
         <v>594.95357890430591</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="1">
         <v>643.57682959303406</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="1">
         <v>660.15770179150434</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="1">
         <v>7.265345102468646</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="1">
         <v>7.9927469851274306</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="1">
         <v>4.4166212142816175</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="1">
         <v>5.1665597682715738</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="1">
         <v>46.546666666666603</v>
       </c>
-      <c r="AB38">
+      <c r="AB38" s="1">
         <v>15.608733391152944</v>
       </c>
-      <c r="AC38">
+      <c r="AC38" s="1">
         <v>17.171470177157207</v>
       </c>
-      <c r="AD38">
+      <c r="AD38" s="1">
         <v>9.488587541424284</v>
       </c>
-      <c r="AE38">
+      <c r="AE38" s="1">
         <v>11.099741696372631</v>
       </c>
-      <c r="AF38">
+      <c r="AF38" s="1">
         <v>1008144416.6873603</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" s="1">
         <v>679802679.71428311</v>
       </c>
-      <c r="AH38">
+      <c r="AH38" s="1">
         <v>392159038.81055552</v>
       </c>
-      <c r="AI38">
+      <c r="AI38" s="1">
         <v>560851255.89986134</v>
       </c>
-      <c r="AJ38">
+      <c r="AJ38" s="1">
         <v>0.56144000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>13</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>5.5166681099999997E-2</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
         <v>56.243909632882193</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>275.33091074409123</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
         <v>0.9899451369443758</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>4150</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="1">
         <v>4809.5223778015552</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="1">
         <v>4800</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="1">
         <v>4700.1725550070196</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="1">
         <v>1750</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="1">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="1">
         <v>955.879727141991</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="1">
         <v>980.92168598272701</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="1">
         <v>655.16482869324159</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="1">
         <v>670.53235497393428</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="1">
         <v>722.13141349172486</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="1">
         <v>739.72895778974635</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="1">
         <v>6.5365161034182888</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="1">
         <v>7.2026306206971711</v>
       </c>
-      <c r="Y39">
+      <c r="Y39" s="1">
         <v>3.7125210092051648</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="1">
         <v>4.0896083435345325</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="1">
         <v>49.456666666666599</v>
       </c>
-      <c r="AB39">
+      <c r="AB39" s="1">
         <v>13.216653171298034</v>
       </c>
-      <c r="AC39">
+      <c r="AC39" s="1">
         <v>14.563518138499386</v>
       </c>
-      <c r="AD39">
+      <c r="AD39" s="1">
         <v>7.5066138893411809</v>
       </c>
-      <c r="AE39">
+      <c r="AE39" s="1">
         <v>8.2690739574062242</v>
       </c>
-      <c r="AF39">
+      <c r="AF39" s="1">
         <v>649754513.00513756</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" s="1">
         <v>677212760.32997894</v>
       </c>
-      <c r="AH39">
+      <c r="AH39" s="1">
         <v>635369039.18531549</v>
       </c>
-      <c r="AI39">
+      <c r="AI39" s="1">
         <v>908407237.67401409</v>
       </c>
-      <c r="AJ39">
+      <c r="AJ39" s="1">
         <v>0.72911000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>13</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>5.46177589E-2</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
         <v>56.162350262773572</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>256.62634538204617</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
         <v>0.99856593016370188</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>3050</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="1">
         <v>3420.3378683719297</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="1">
         <v>3400</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="1">
         <v>3260.1887792861489</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="1">
         <v>1750</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="1">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="1">
         <v>825.10344945994757</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="1">
         <v>846.38592078208978</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="1">
         <v>647.1145027127659</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="1">
         <v>662.6588327613365</v>
       </c>
-      <c r="U40">
+      <c r="U40" s="1">
         <v>714.7410046978091</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="1">
         <v>732.50268054237551</v>
       </c>
-      <c r="W40">
+      <c r="W40" s="1">
         <v>5.5249652436048562</v>
       </c>
-      <c r="X40">
+      <c r="X40" s="1">
         <v>6.5690339473761501</v>
       </c>
-      <c r="Y40">
+      <c r="Y40" s="1">
         <v>3.756582906977239</v>
       </c>
-      <c r="Z40">
+      <c r="Z40" s="1">
         <v>4.4482978088606995</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" s="1">
         <v>39.07</v>
       </c>
-      <c r="AB40">
+      <c r="AB40" s="1">
         <v>14.141195914012942</v>
       </c>
-      <c r="AC40">
+      <c r="AC40" s="1">
         <v>16.813498713529945</v>
       </c>
-      <c r="AD40">
+      <c r="AD40" s="1">
         <v>9.615006160678881</v>
       </c>
-      <c r="AE40">
+      <c r="AE40" s="1">
         <v>11.385456383057843</v>
       </c>
-      <c r="AF40">
+      <c r="AF40" s="1">
         <v>476269675.41235793</v>
       </c>
-      <c r="AG40">
+      <c r="AG40" s="1">
         <v>274567652.34762502</v>
       </c>
-      <c r="AH40">
+      <c r="AH40" s="1">
         <v>367772535.607647</v>
       </c>
-      <c r="AI40">
+      <c r="AI40" s="1">
         <v>423010673.66771156</v>
       </c>
-      <c r="AJ40">
+      <c r="AJ40" s="1">
         <v>0.62156</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>13</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>5.46177589E-2</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
         <v>43.404393341049818</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>164.8598515640227</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
         <v>0.99445629447256678</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>3050</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="1">
         <v>4305.4519842108102</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="1">
         <v>4250</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="1">
         <v>4668.5808162165749</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="1">
         <v>1750</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="1">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="1">
         <v>708.77611190435675</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="1">
         <v>727.94571426803157</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="1">
         <v>547.59182361277635</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="1">
         <v>561.81419883159936</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="1">
         <v>609.12250624524052</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="1">
         <v>625.25397648753858</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="1">
         <v>6.5550163576777116</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="1">
         <v>8.2274623286124626</v>
       </c>
-      <c r="Y41">
+      <c r="Y41" s="1">
         <v>4.8689639028677139</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="1">
         <v>5.6859685323639138</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" s="1">
         <v>30.07</v>
       </c>
-      <c r="AB41">
+      <c r="AB41" s="1">
         <v>21.79918974951018</v>
       </c>
-      <c r="AC41">
+      <c r="AC41" s="1">
         <v>27.361032020660005</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="1">
         <v>16.192098113959808</v>
       </c>
-      <c r="AE41">
+      <c r="AE41" s="1">
         <v>18.909107191100478</v>
       </c>
-      <c r="AF41">
+      <c r="AF41" s="1">
         <v>409203454.53129977</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" s="1">
         <v>354832725.53390306</v>
       </c>
-      <c r="AH41">
+      <c r="AH41" s="1">
         <v>226609370.33531266</v>
       </c>
-      <c r="AI41">
+      <c r="AI41" s="1">
         <v>321684057.95531255</v>
       </c>
-      <c r="AJ41">
+      <c r="AJ41" s="1">
         <v>0.58667000000000002</v>
       </c>
     </row>
@@ -5031,7 +5050,7 @@
       <c r="P42">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="1">
         <v>569.51670021276755</v>
       </c>
       <c r="R42">
@@ -5043,7 +5062,7 @@
       <c r="T42">
         <v>420.3618412993614</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="1">
         <v>458.88745361746396</v>
       </c>
       <c r="V42">
@@ -5141,7 +5160,7 @@
       <c r="P43">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="1">
         <v>382.01700278746381</v>
       </c>
       <c r="R43">
@@ -5153,7 +5172,7 @@
       <c r="T43">
         <v>289.32397127783736</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="1">
         <v>313.05061525711278</v>
       </c>
       <c r="V43">
@@ -5251,7 +5270,7 @@
       <c r="P44">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="1">
         <v>449.49207516581134</v>
       </c>
       <c r="R44">
@@ -5263,7 +5282,7 @@
       <c r="T44">
         <v>374.36704744650183</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="1">
         <v>407.52190098460039</v>
       </c>
       <c r="V44">
@@ -5361,7 +5380,7 @@
       <c r="P45">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="1">
         <v>519.82867641869154</v>
       </c>
       <c r="R45">
@@ -5373,7 +5392,7 @@
       <c r="T45">
         <v>430.55319339551772</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="1">
         <v>470.00445251990408</v>
       </c>
       <c r="V45">
@@ -5471,7 +5490,7 @@
       <c r="P46">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="1">
         <v>345.74250903787299</v>
       </c>
       <c r="R46">
@@ -5483,7 +5502,7 @@
       <c r="T46">
         <v>355.49884474441546</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="1">
         <v>387.68565869665457</v>
       </c>
       <c r="V46">
@@ -5572,7 +5591,7 @@
       <c r="P47">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="1">
         <v>316.90551222115442</v>
       </c>
       <c r="R47">
@@ -5584,7 +5603,7 @@
       <c r="T47">
         <v>323.17931816810739</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="1">
         <v>344.54044906603099</v>
       </c>
       <c r="V47">
@@ -5682,7 +5701,7 @@
       <c r="P48">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="1">
         <v>453.3909545798017</v>
       </c>
       <c r="R48">
@@ -5694,7 +5713,7 @@
       <c r="T48">
         <v>442.03247042242526</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="1">
         <v>481.77965674502803</v>
       </c>
       <c r="V48">
@@ -5783,7 +5802,7 @@
       <c r="P49">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="1">
         <v>224.90987065304608</v>
       </c>
       <c r="R49">
@@ -5795,7 +5814,7 @@
       <c r="T49">
         <v>220.20317192714549</v>
       </c>
-      <c r="U49">
+      <c r="U49" s="1">
         <v>236.66495322975808</v>
       </c>
       <c r="V49">
@@ -5893,7 +5912,7 @@
       <c r="P50">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="1">
         <v>699.9149974971441</v>
       </c>
       <c r="R50">
@@ -5905,7 +5924,7 @@
       <c r="T50">
         <v>543.28193821414618</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="1">
         <v>573.64779492667765</v>
       </c>
       <c r="V50">
@@ -6003,7 +6022,7 @@
       <c r="P51">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="1">
         <v>579.20483461314745</v>
       </c>
       <c r="R51">
@@ -6015,7 +6034,7 @@
       <c r="T51">
         <v>414.70256455602072</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="1">
         <v>447.63243713493438</v>
       </c>
       <c r="V51">
@@ -6113,7 +6132,7 @@
       <c r="P52">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="1">
         <v>1180.2989639712619</v>
       </c>
       <c r="R52">
@@ -6125,7 +6144,7 @@
       <c r="T52">
         <v>844.15968014978216</v>
       </c>
-      <c r="U52">
+      <c r="U52" s="1">
         <v>918.39348950720682</v>
       </c>
       <c r="V52">
@@ -6223,7 +6242,7 @@
       <c r="P53">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="1">
         <v>731.37868342406568</v>
       </c>
       <c r="R53">
@@ -6235,7 +6254,7 @@
       <c r="T53">
         <v>537.38326822533475</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="1">
         <v>579.78955532555187</v>
       </c>
       <c r="V53">
@@ -6333,7 +6352,7 @@
       <c r="P54">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="1">
         <v>819.00360444201067</v>
       </c>
       <c r="R54">
@@ -6345,7 +6364,7 @@
       <c r="T54">
         <v>664.82924416912942</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="1">
         <v>720.8133426144052</v>
       </c>
       <c r="V54">
@@ -6443,7 +6462,7 @@
       <c r="P55">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="1">
         <v>830.40842618643262</v>
       </c>
       <c r="R55">
@@ -6455,7 +6474,7 @@
       <c r="T55">
         <v>666.90890266256952</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="1">
         <v>726.45749065498478</v>
       </c>
       <c r="V55">
@@ -6553,7 +6572,7 @@
       <c r="P56">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="1">
         <v>621.14992411428568</v>
       </c>
       <c r="R56">
@@ -6565,7 +6584,7 @@
       <c r="T56">
         <v>470.95895580712795</v>
       </c>
-      <c r="U56">
+      <c r="U56" s="1">
         <v>511.91103692664672</v>
       </c>
       <c r="V56">
@@ -6663,7 +6682,7 @@
       <c r="P57">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="1">
         <v>567.82240222618827</v>
       </c>
       <c r="R57">
@@ -6675,7 +6694,7 @@
       <c r="T57">
         <v>429.83828041097911</v>
       </c>
-      <c r="U57">
+      <c r="U57" s="1">
         <v>467.48237516544219</v>
       </c>
       <c r="V57">
@@ -6773,7 +6792,7 @@
       <c r="P58">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="1">
         <v>424.17752339353621</v>
       </c>
       <c r="R58">
@@ -6785,7 +6804,7 @@
       <c r="T58">
         <v>335.97895708090704</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="1">
         <v>353.35153679563132</v>
       </c>
       <c r="V58">
@@ -6883,7 +6902,7 @@
       <c r="P59">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="1">
         <v>264.92428215253108</v>
       </c>
       <c r="R59">
@@ -6895,7 +6914,7 @@
       <c r="T59">
         <v>252.86532244120906</v>
       </c>
-      <c r="U59">
+      <c r="U59" s="1">
         <v>255.07137766010717</v>
       </c>
       <c r="V59">
@@ -6993,7 +7012,7 @@
       <c r="P60">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="1">
         <v>548.29718494578435</v>
       </c>
       <c r="R60">
@@ -7005,7 +7024,7 @@
       <c r="T60">
         <v>447.03597640612531</v>
       </c>
-      <c r="U60">
+      <c r="U60" s="1">
         <v>467.24671869149495</v>
       </c>
       <c r="V60">
@@ -7103,7 +7122,7 @@
       <c r="P61">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="1">
         <v>326.82965859709776</v>
       </c>
       <c r="R61">
@@ -7115,7 +7134,7 @@
       <c r="T61">
         <v>337.31178094320694</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="1">
         <v>335.40497216161646</v>
       </c>
       <c r="V61">
@@ -7213,7 +7232,7 @@
       <c r="P62">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="1">
         <v>654.71242745150073</v>
       </c>
       <c r="R62">
@@ -7225,7 +7244,7 @@
       <c r="T62">
         <v>549.87437695564142</v>
       </c>
-      <c r="U62">
+      <c r="U62" s="1">
         <v>570.55693753716128</v>
       </c>
       <c r="V62">
@@ -7323,7 +7342,7 @@
       <c r="P63">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="1">
         <v>587.73399234314309</v>
       </c>
       <c r="R63">
@@ -7335,7 +7354,7 @@
       <c r="T63">
         <v>496.5747483634733</v>
       </c>
-      <c r="U63">
+      <c r="U63" s="1">
         <v>514.51667184823327</v>
       </c>
       <c r="V63">
@@ -7433,7 +7452,7 @@
       <c r="P64">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="1">
         <v>361.18336267613563</v>
       </c>
       <c r="R64">
@@ -7445,7 +7464,7 @@
       <c r="T64">
         <v>336.26797355074569</v>
       </c>
-      <c r="U64">
+      <c r="U64" s="1">
         <v>340.87122151379282</v>
       </c>
       <c r="V64">
@@ -7543,7 +7562,7 @@
       <c r="P65">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="1">
         <v>710.88702181429073</v>
       </c>
       <c r="R65">
@@ -7555,7 +7574,7 @@
       <c r="T65">
         <v>503.98796842298248</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="1">
         <v>546.55648010010805</v>
       </c>
       <c r="V65">
@@ -7653,7 +7672,7 @@
       <c r="P66">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="1">
         <v>292.46246224823625</v>
       </c>
       <c r="R66">
@@ -7665,7 +7684,7 @@
       <c r="T66">
         <v>261.01575471089546</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="1">
         <v>272.67072288676997</v>
       </c>
       <c r="V66">
@@ -7763,7 +7782,7 @@
       <c r="P67">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="1">
         <v>328.24402698062534</v>
       </c>
       <c r="R67">
@@ -7775,7 +7794,7 @@
       <c r="T67">
         <v>290.71633015245146</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="1">
         <v>304.65494674187664</v>
       </c>
       <c r="V67">
@@ -7873,7 +7892,7 @@
       <c r="P68">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="1">
         <v>439.76975419818933</v>
       </c>
       <c r="R68">
@@ -7885,7 +7904,7 @@
       <c r="T68">
         <v>362.750591876334</v>
       </c>
-      <c r="U68">
+      <c r="U68" s="1">
         <v>388.26442067970879</v>
       </c>
       <c r="V68">
@@ -7983,7 +8002,7 @@
       <c r="P69">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="1">
         <v>323.53230825132454</v>
       </c>
       <c r="R69">
@@ -7995,7 +8014,7 @@
       <c r="T69">
         <v>284.22002748891435</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="1">
         <v>296.99548281007537</v>
       </c>
       <c r="V69">
@@ -8093,7 +8112,7 @@
       <c r="P70">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" s="1">
         <v>817.21254951405786</v>
       </c>
       <c r="R70">
@@ -8105,7 +8124,7 @@
       <c r="T70">
         <v>617.59674279329852</v>
       </c>
-      <c r="U70">
+      <c r="U70" s="1">
         <v>673.93461726147802</v>
       </c>
       <c r="V70">
@@ -8203,7 +8222,7 @@
       <c r="P71">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" s="1">
         <v>560.47993655364917</v>
       </c>
       <c r="R71">
@@ -8215,7 +8234,7 @@
       <c r="T71">
         <v>427.97225164152474</v>
       </c>
-      <c r="U71">
+      <c r="U71" s="1">
         <v>465.24167667586056</v>
       </c>
       <c r="V71">
@@ -8313,7 +8332,7 @@
       <c r="P72">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" s="1">
         <v>611.10313558376538</v>
       </c>
       <c r="R72">
@@ -8325,7 +8344,7 @@
       <c r="T72">
         <v>444.20155306681994</v>
       </c>
-      <c r="U72">
+      <c r="U72" s="1">
         <v>482.82620899055058</v>
       </c>
       <c r="V72">
@@ -8423,7 +8442,7 @@
       <c r="P73">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="1">
         <v>786.12150726286006</v>
       </c>
       <c r="R73">
@@ -8435,7 +8454,7 @@
       <c r="T73">
         <v>572.92620372967463</v>
       </c>
-      <c r="U73">
+      <c r="U73" s="1">
         <v>622.21614152552183</v>
       </c>
       <c r="V73">
@@ -8533,7 +8552,7 @@
       <c r="P74">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="1">
         <v>775.45572417482072</v>
       </c>
       <c r="R74">
@@ -8545,7 +8564,7 @@
       <c r="T74">
         <v>680.89257636895456</v>
       </c>
-      <c r="U74">
+      <c r="U74" s="1">
         <v>717.8962205719539</v>
       </c>
       <c r="V74">
@@ -8643,7 +8662,7 @@
       <c r="P75">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="1">
         <v>645.4103349979996</v>
       </c>
       <c r="R75">
@@ -8655,7 +8674,7 @@
       <c r="T75">
         <v>531.90832737495248</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="1">
         <v>577.07172829590979</v>
       </c>
       <c r="V75">
@@ -8753,7 +8772,7 @@
       <c r="P76">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="1">
         <v>768.72262186045168</v>
       </c>
       <c r="R76">
@@ -8765,7 +8784,7 @@
       <c r="T76">
         <v>625.27009698516804</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="1">
         <v>682.5458122433389</v>
       </c>
       <c r="V76">
@@ -8863,7 +8882,7 @@
       <c r="P77">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" s="1">
         <v>645.77202262318974</v>
       </c>
       <c r="R77">
@@ -8875,7 +8894,7 @@
       <c r="T77">
         <v>527.5081088585805</v>
       </c>
-      <c r="U77">
+      <c r="U77" s="1">
         <v>574.67476982069365</v>
       </c>
       <c r="V77">
@@ -8973,7 +8992,7 @@
       <c r="P78">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="1">
         <v>775.57359673897963</v>
       </c>
       <c r="R78">
@@ -8985,7 +9004,7 @@
       <c r="T78">
         <v>528.22209463331683</v>
       </c>
-      <c r="U78">
+      <c r="U78" s="1">
         <v>570.8532069016577</v>
       </c>
       <c r="V78">
@@ -9083,7 +9102,7 @@
       <c r="P79">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" s="1">
         <v>597.80711032773672</v>
       </c>
       <c r="R79">
@@ -9095,7 +9114,7 @@
       <c r="T79">
         <v>406.92429914272248</v>
       </c>
-      <c r="U79">
+      <c r="U79" s="1">
         <v>439.83069755277944</v>
       </c>
       <c r="V79">
@@ -9193,7 +9212,7 @@
       <c r="P80">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="1">
         <v>674.81144835765735</v>
       </c>
       <c r="R80">
@@ -9205,7 +9224,7 @@
       <c r="T80">
         <v>466.1197052604208</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="1">
         <v>502.58637748152137</v>
       </c>
       <c r="V80">
@@ -9303,7 +9322,7 @@
       <c r="P81">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="1">
         <v>552.42222931209449</v>
       </c>
       <c r="R81">
@@ -9315,7 +9334,7 @@
       <c r="T81">
         <v>379.43571408167014</v>
       </c>
-      <c r="U81">
+      <c r="U81" s="1">
         <v>409.7345934206283</v>
       </c>
       <c r="V81">
@@ -9413,7 +9432,7 @@
       <c r="P82">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" s="1">
         <v>436.27850067248914</v>
       </c>
       <c r="R82">
@@ -9425,7 +9444,7 @@
       <c r="T82">
         <v>389.70523897089851</v>
       </c>
-      <c r="U82">
+      <c r="U82" s="1">
         <v>420.48507655167782</v>
       </c>
       <c r="V82">
@@ -9523,7 +9542,7 @@
       <c r="P83">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" s="1">
         <v>286.68710041596239</v>
       </c>
       <c r="R83">
@@ -9535,7 +9554,7 @@
       <c r="T83">
         <v>268.52222340261272</v>
       </c>
-      <c r="U83">
+      <c r="U83" s="1">
         <v>280.45190850170559</v>
       </c>
       <c r="V83">
@@ -9633,7 +9652,7 @@
       <c r="P84">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" s="1">
         <v>525.72770897933742</v>
       </c>
       <c r="R84">
@@ -9645,7 +9664,7 @@
       <c r="T84">
         <v>447.58843766823543</v>
       </c>
-      <c r="U84">
+      <c r="U84" s="1">
         <v>481.89466829497843</v>
       </c>
       <c r="V84">
@@ -9743,7 +9762,7 @@
       <c r="P85">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" s="1">
         <v>786.32627500005503</v>
       </c>
       <c r="R85">
@@ -9755,7 +9774,7 @@
       <c r="T85">
         <v>652.74598886233014</v>
       </c>
-      <c r="U85">
+      <c r="U85" s="1">
         <v>711.74464277902507</v>
       </c>
       <c r="V85">
@@ -9805,6 +9824,30 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_output/output for F24 stiff 2018-01-18 youngs modulus/all_stiff_output_20180118_1246 SOL.xlsx
+++ b/data_output/output for F24 stiff 2018-01-18 youngs modulus/all_stiff_output_20180118_1246 SOL.xlsx
@@ -182,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,14 +190,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,443 +2385,443 @@
         <v>0.69211</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>7</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>5.1049764599999999E-2</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
         <v>-2.0640914133147938</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>465.56394793915791</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>0.99164550276725361</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <v>2800</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>3153.2065224181256</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>3100</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <v>3307.4531083266952</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <v>1750</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="3">
         <v>442.6476355102713</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="2">
         <v>441.34583058368776</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="2">
         <v>451.3794990059896</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="2">
         <v>450.58066874972224</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="3">
         <v>447.60114536307776</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="2">
         <v>446.58575873068094</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="2">
         <v>6.4201098482584076</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="2">
         <v>6.9784374031871224</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="2">
         <v>3.6674949344614873</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="2">
         <v>4.8897371829151508</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="2">
         <v>82.51</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="2">
         <v>7.7810081787158012</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="2">
         <v>8.457686829702002</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="2">
         <v>4.4449096284831988</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="2">
         <v>5.9262358294935771</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="2">
         <v>516804956.86635566</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="2">
         <v>578463176.50020492</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="2">
         <v>640360081.48766124</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="2">
         <v>613683584.79381549</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="2">
         <v>0.57377999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>7</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>5.1049764599999999E-2</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
         <v>20.203204194807686</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="4">
         <v>155.41351461453644</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
         <v>0.99896803442332271</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>2800</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>3299.0465586226032</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>3200</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>3192.7025374555137</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <v>1750</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="5">
         <v>476.6952539041954</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="4">
         <v>488.85739185889378</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <v>388.71923161796303</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="4">
         <v>398.02734317611521</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="5">
         <v>429.22351524410033</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="4">
         <v>439.86245276709758</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="4">
         <v>8.6394820577101541</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="4">
         <v>9.2963156339299111</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="4">
         <v>6.1682183103497019</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="4">
         <v>7.3727891790335622</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="4">
         <v>86.73</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="4">
         <v>9.9613536927362549</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="4">
         <v>10.718685153845165</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="4">
         <v>7.111977758964259</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="4">
         <v>8.5008522760677518</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="4">
         <v>537292580.26384044</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="4">
         <v>653575033.15393972</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="4">
         <v>471965833.74614912</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="4">
         <v>510016100.08630788</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="4">
         <v>0.70089000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>5.0500842399999996E-2</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
         <v>4.3614547192735849</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>244.73631533613775</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
         <v>0.99313659404312726</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>2750</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>3075.619984068248</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>3050</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>3303.285508174512</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="4">
         <v>1750</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="5">
         <v>320.96481009950475</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="4">
         <v>324.74516927917091</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="4">
         <v>295.54416036715367</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="4">
         <v>298.14926539741958</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="5">
         <v>307.42101590387534</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="4">
         <v>310.58387902928553</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="4">
         <v>9.682963342490158</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="4">
         <v>10.254193741100888</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="4">
         <v>6.2817217672501249</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="4">
         <v>8.1092909674281408</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="4">
         <v>88.243333333333297</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="4">
         <v>10.973025356956327</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="4">
         <v>11.620360829261012</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="4">
         <v>7.1186360827070523</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="4">
         <v>9.1896924799926083</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="4">
         <v>456763657.28023839</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="4">
         <v>575162549.20403254</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="4">
         <v>383558616.27329749</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="4">
         <v>398013373.32736152</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="4">
         <v>0.60567000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>5.0500842399999996E-2</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
         <v>11.480199491574192</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>164.93804268195981</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>0.99857301963748524</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="6">
         <v>2750</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>3196.8016423315303</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="6">
         <v>3150</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="6">
         <v>3204.7788703433894</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>1750</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="7">
         <v>374.93322906492261</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="6">
         <v>383.5425507886161</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="6">
         <v>315.22585227227643</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="6">
         <v>321.72797606874053</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="7">
         <v>343.79586056591893</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="6">
         <v>351.32313511139</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="6">
         <v>9.9817336637017728</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="6">
         <v>10.99918827116686</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="6">
         <v>7.020865022597782</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="6">
         <v>8.5434286755204631</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="6">
         <v>81.589999999999904</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="6">
         <v>12.234016011400643</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="6">
         <v>13.481049480532997</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="6">
         <v>8.6050557943348327</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="6">
         <v>10.471171314524419</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="6">
         <v>487101060.00058234</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="6">
         <v>524829325.1631158</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="6">
         <v>435874369.03373605</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="6">
         <v>461768725.38003808</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="6">
         <v>0.58377999999999997</v>
       </c>
     </row>
@@ -5863,443 +5887,443 @@
         <v>0.31032999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>18</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>5.0500842399999996E-2</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
         <v>26.457709591371568</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>345.37534357580131</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
         <v>0.99893616310525768</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <v>3900</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="2">
         <v>5845.0750406346888</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="2">
         <v>5750</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="2">
         <v>6434.819554976486</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="2">
         <v>1750</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="2">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="3">
         <v>699.9149974971441</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="2">
         <v>714.96789986433885</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="2">
         <v>534.47873651310817</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="2">
         <v>543.28193821414618</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U50" s="3">
         <v>573.64779492667765</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="2">
         <v>584.00697111332602</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="2">
         <v>7.2151702373296702</v>
       </c>
-      <c r="X50">
+      <c r="X50" s="2">
         <v>8.0726228533131135</v>
       </c>
-      <c r="Y50">
+      <c r="Y50" s="2">
         <v>3.8712841908542601</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="2">
         <v>4.6690257917829951</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="2">
         <v>33.376666666666601</v>
       </c>
-      <c r="AB50">
+      <c r="AB50" s="2">
         <v>21.617408081483124</v>
       </c>
-      <c r="AC50">
+      <c r="AC50" s="2">
         <v>24.186426205871754</v>
       </c>
-      <c r="AD50">
+      <c r="AD50" s="2">
         <v>11.598774166146812</v>
       </c>
-      <c r="AE50">
+      <c r="AE50" s="2">
         <v>13.988891815988227</v>
       </c>
-      <c r="AF50">
+      <c r="AF50" s="2">
         <v>286826477.69524109</v>
       </c>
-      <c r="AG50">
+      <c r="AG50" s="2">
         <v>1370628015.6868072</v>
       </c>
-      <c r="AH50">
+      <c r="AH50" s="2">
         <v>255064400.13529059</v>
       </c>
-      <c r="AI50">
+      <c r="AI50" s="2">
         <v>238294517.7112551</v>
       </c>
-      <c r="AJ50">
+      <c r="AJ50" s="2">
         <v>0.87289000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>18</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>5.0500842399999996E-2</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
         <v>22.233897787351971</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>155.59828856569936</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
         <v>0.9869822426603293</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="4">
         <v>3900</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="4">
         <v>5973.9557186511011</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="4">
         <v>5650</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="4">
         <v>6273.3615014596153</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="4">
         <v>1750</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="4">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="5">
         <v>579.20483461314745</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="4">
         <v>594.56243876911446</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="4">
         <v>404.86409984466684</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="4">
         <v>414.70256455602072</v>
       </c>
-      <c r="U51" s="1">
+      <c r="U51" s="5">
         <v>447.63243713493438</v>
       </c>
-      <c r="V51">
+      <c r="V51" s="4">
         <v>458.86236628908142</v>
       </c>
-      <c r="W51">
+      <c r="W51" s="4">
         <v>9.5147387282333717</v>
       </c>
-      <c r="X51">
+      <c r="X51" s="4">
         <v>9.6351730682845194</v>
       </c>
-      <c r="Y51">
+      <c r="Y51" s="4">
         <v>5.9822689037025283</v>
       </c>
-      <c r="Z51">
+      <c r="Z51" s="4">
         <v>7.4135110015181143</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" s="4">
         <v>25.486666666666601</v>
       </c>
-      <c r="AB51">
+      <c r="AB51" s="4">
         <v>37.332221010594026</v>
       </c>
-      <c r="AC51">
+      <c r="AC51" s="4">
         <v>37.804759619217407</v>
       </c>
-      <c r="AD51">
+      <c r="AD51" s="4">
         <v>23.472151073904829</v>
       </c>
-      <c r="AE51">
+      <c r="AE51" s="4">
         <v>29.087801470774782</v>
       </c>
-      <c r="AF51">
+      <c r="AF51" s="4">
         <v>640881087.05735505</v>
       </c>
-      <c r="AG51">
+      <c r="AG51" s="4">
         <v>2621669690.1604023</v>
       </c>
-      <c r="AH51">
+      <c r="AH51" s="4">
         <v>133595619.52248453</v>
       </c>
-      <c r="AI51">
+      <c r="AI51" s="4">
         <v>130254085.832193</v>
       </c>
-      <c r="AJ51">
+      <c r="AJ51" s="4">
         <v>0.69055999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>18</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>5.1324225700000004E-2</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
         <v>102.57628489182048</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <v>175.85636445529352</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
         <v>0.99384196247728562</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="4">
         <v>3700</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="4">
         <v>5507.3763709147197</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="4">
         <v>5500</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="4">
         <v>5888.9512363044942</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="4">
         <v>1750</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="4">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="5">
         <v>1180.2989639712619</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="4">
         <v>1213.3299528410964</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="4">
         <v>821.73427938455302</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="4">
         <v>844.15968014978216</v>
       </c>
-      <c r="U52" s="1">
+      <c r="U52" s="5">
         <v>918.39348950720682</v>
       </c>
-      <c r="V52">
+      <c r="V52" s="4">
         <v>943.70364225605795</v>
       </c>
-      <c r="W52">
+      <c r="W52" s="4">
         <v>5.1900571593447102</v>
       </c>
-      <c r="X52">
+      <c r="X52" s="4">
         <v>6.4023847593350514</v>
       </c>
-      <c r="Y52">
+      <c r="Y52" s="4">
         <v>3.2660589315763238</v>
       </c>
-      <c r="Z52">
+      <c r="Z52" s="4">
         <v>3.7927104767212092</v>
       </c>
-      <c r="AA52">
+      <c r="AA52" s="4">
         <v>30.213333333333299</v>
       </c>
-      <c r="AB52">
+      <c r="AB52" s="4">
         <v>17.178035611246852</v>
       </c>
-      <c r="AC52">
+      <c r="AC52" s="4">
         <v>21.190593863642075</v>
       </c>
-      <c r="AD52">
+      <c r="AD52" s="4">
         <v>10.80999205067187</v>
       </c>
-      <c r="AE52">
+      <c r="AE52" s="4">
         <v>12.553101754372948</v>
       </c>
-      <c r="AF52">
+      <c r="AF52" s="4">
         <v>891640818.50892842</v>
       </c>
-      <c r="AG52">
+      <c r="AG52" s="4">
         <v>517226862.43278742</v>
       </c>
-      <c r="AH52">
+      <c r="AH52" s="4">
         <v>841418512.33296061</v>
       </c>
-      <c r="AI52">
+      <c r="AI52" s="4">
         <v>557687246.61592722</v>
       </c>
-      <c r="AJ52">
+      <c r="AJ52" s="4">
         <v>0.46256000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
         <v>18</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="6">
         <v>5.1324225700000004E-2</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
         <v>37.090924623760614</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="6">
         <v>205.60161511282541</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
         <v>0.99357390816694469</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="6">
         <v>3700</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="6">
         <v>6113.944177260084</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="6">
         <v>6100</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="6">
         <v>5822.5573874670981</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="6">
         <v>1750</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="6">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53" s="7">
         <v>731.37868342406568</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="6">
         <v>750.62384516017107</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="6">
         <v>524.72160405026898</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="6">
         <v>537.38326822533475</v>
       </c>
-      <c r="U53" s="1">
+      <c r="U53" s="7">
         <v>579.78955532555187</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="6">
         <v>594.25134497036538</v>
       </c>
-      <c r="W53">
+      <c r="W53" s="6">
         <v>7.3078688247628882</v>
       </c>
-      <c r="X53">
+      <c r="X53" s="6">
         <v>11.652871676789253</v>
       </c>
-      <c r="Y53">
+      <c r="Y53" s="6">
         <v>4.8043974188140997</v>
       </c>
-      <c r="Z53">
+      <c r="Z53" s="6">
         <v>5.6703524483805268</v>
       </c>
-      <c r="AA53">
+      <c r="AA53" s="6">
         <v>30.2</v>
       </c>
-      <c r="AB53">
+      <c r="AB53" s="6">
         <v>24.19824114159897</v>
       </c>
-      <c r="AC53">
+      <c r="AC53" s="6">
         <v>38.585667803937923</v>
       </c>
-      <c r="AD53">
+      <c r="AD53" s="6">
         <v>15.908600724549999</v>
       </c>
-      <c r="AE53">
+      <c r="AE53" s="6">
         <v>18.77600148470373</v>
       </c>
-      <c r="AF53">
+      <c r="AF53" s="6">
         <v>486101919.84613764</v>
       </c>
-      <c r="AG53">
+      <c r="AG53" s="6">
         <v>150726145.22162631</v>
       </c>
-      <c r="AH53">
+      <c r="AH53" s="6">
         <v>170297153.25091034</v>
       </c>
-      <c r="AI53">
+      <c r="AI53" s="6">
         <v>257102197.44151846</v>
       </c>
-      <c r="AJ53">
+      <c r="AJ53" s="6">
         <v>0.69467000000000001</v>
       </c>
     </row>
@@ -6743,443 +6767,443 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>21</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>5.6813447699999998E-2</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
         <v>9.3354017444645656</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>225.44418785595687</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
         <v>0.99846897754583575</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="2">
         <v>3850</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="2">
         <v>4643.6386451017288</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="2">
         <v>4450</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="2">
         <v>4844.9820125184569</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="2">
         <v>1750</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="2">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="3">
         <v>424.17752339353621</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="2">
         <v>432.81988540151298</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="2">
         <v>330.96926253426659</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="2">
         <v>335.97895708090704</v>
       </c>
-      <c r="U58" s="1">
+      <c r="U58" s="3">
         <v>353.35153679563132</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="2">
         <v>359.27825178043167</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="2">
         <v>11.498224870562042</v>
       </c>
-      <c r="X58">
+      <c r="X58" s="2">
         <v>12.181386006426395</v>
       </c>
-      <c r="Y58">
+      <c r="Y58" s="2">
         <v>6.343535436823732</v>
       </c>
-      <c r="Z58">
+      <c r="Z58" s="2">
         <v>7.4352909536037037</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="2">
         <v>57.9033333333333</v>
       </c>
-      <c r="AB58">
+      <c r="AB58" s="2">
         <v>19.857621675025126</v>
       </c>
-      <c r="AC58">
+      <c r="AC58" s="2">
         <v>21.03745208639641</v>
       </c>
-      <c r="AD58">
+      <c r="AD58" s="2">
         <v>10.95538904523125</v>
       </c>
-      <c r="AE58">
+      <c r="AE58" s="2">
         <v>12.840868609067483</v>
       </c>
-      <c r="AF58">
+      <c r="AF58" s="2">
         <v>485524185.49262089</v>
       </c>
-      <c r="AG58">
+      <c r="AG58" s="2">
         <v>722630808.31352973</v>
       </c>
-      <c r="AH58">
+      <c r="AH58" s="2">
         <v>288643913.77808064</v>
       </c>
-      <c r="AI58">
+      <c r="AI58" s="2">
         <v>472907957.13657933</v>
       </c>
-      <c r="AJ58">
+      <c r="AJ58" s="2">
         <v>0.58221999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>21</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>5.6813447699999998E-2</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
         <v>0.86685047464079568</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="4">
         <v>241.19841529396399</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
         <v>0.99833674347642043</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="4">
         <v>3850</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="4">
         <v>4331.1838923748455</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="4">
         <v>4300</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="4">
         <v>4410.0008685965558</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="4">
         <v>1750</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="4">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="Q59" s="5">
         <v>264.92428215253108</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="4">
         <v>266.19001874463396</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="4">
         <v>252.26253592007728</v>
       </c>
-      <c r="T59">
+      <c r="T59" s="4">
         <v>252.86532244120906</v>
       </c>
-      <c r="U59" s="1">
+      <c r="U59" s="5">
         <v>255.07137766010717</v>
       </c>
-      <c r="V59">
+      <c r="V59" s="4">
         <v>255.82358893096898</v>
       </c>
-      <c r="W59">
+      <c r="W59" s="4">
         <v>14.506928555573044</v>
       </c>
-      <c r="X59">
+      <c r="X59" s="4">
         <v>14.646038536249312</v>
       </c>
-      <c r="Y59">
+      <c r="Y59" s="4">
         <v>6.9787045331686253</v>
       </c>
-      <c r="Z59">
+      <c r="Z59" s="4">
         <v>9.0919931993964802</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" s="4">
         <v>54.313333333333297</v>
       </c>
-      <c r="AB59">
+      <c r="AB59" s="4">
         <v>26.709700298710665</v>
       </c>
-      <c r="AC59">
+      <c r="AC59" s="4">
         <v>26.965825217103205</v>
       </c>
-      <c r="AD59">
+      <c r="AD59" s="4">
         <v>12.848971154723143</v>
       </c>
-      <c r="AE59">
+      <c r="AE59" s="4">
         <v>16.739891738179367</v>
       </c>
-      <c r="AF59">
+      <c r="AF59" s="4">
         <v>334187561.00425309</v>
       </c>
-      <c r="AG59">
+      <c r="AG59" s="4">
         <v>779888766.25515962</v>
       </c>
-      <c r="AH59">
+      <c r="AH59" s="4">
         <v>230811384.37912545</v>
       </c>
-      <c r="AI59">
+      <c r="AI59" s="4">
         <v>208768014.47329253</v>
       </c>
-      <c r="AJ59">
+      <c r="AJ59" s="4">
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>21</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>5.6813447699999998E-2</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
         <v>14.389004644713722</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="4">
         <v>322.7785805181561</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
         <v>0.98152133171889366</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="4">
         <v>3800</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="4">
         <v>4985.5231364004503</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="4">
         <v>4950</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="4">
         <v>4866.0009022209788</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="4">
         <v>1750</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="4">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q60" s="1">
+      <c r="Q60" s="5">
         <v>548.29718494578435</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="4">
         <v>558.45087017816593</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="4">
         <v>441.25557160057912</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="4">
         <v>447.03597640612531</v>
       </c>
-      <c r="U60" s="1">
+      <c r="U60" s="5">
         <v>467.24671869149495</v>
       </c>
-      <c r="V60">
+      <c r="V60" s="4">
         <v>474.14175974192034</v>
       </c>
-      <c r="W60">
+      <c r="W60" s="4">
         <v>9.0433390326989418</v>
       </c>
-      <c r="X60">
+      <c r="X60" s="4">
         <v>14.191272454611937</v>
       </c>
-      <c r="Y60">
+      <c r="Y60" s="4">
         <v>4.6187848287599556</v>
       </c>
-      <c r="Z60">
+      <c r="Z60" s="4">
         <v>5.3355691460205898</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" s="4">
         <v>52.553333333333299</v>
       </c>
-      <c r="AB60">
+      <c r="AB60" s="4">
         <v>17.207926613026032</v>
       </c>
-      <c r="AC60">
+      <c r="AC60" s="4">
         <v>27.003562960697604</v>
       </c>
-      <c r="AD60">
+      <c r="AD60" s="4">
         <v>8.7887571269059208</v>
       </c>
-      <c r="AE60">
+      <c r="AE60" s="4">
         <v>10.152675020970303</v>
       </c>
-      <c r="AF60">
+      <c r="AF60" s="4">
         <v>298460142.38980883</v>
       </c>
-      <c r="AG60">
+      <c r="AG60" s="4">
         <v>187865695.60130912</v>
       </c>
-      <c r="AH60">
+      <c r="AH60" s="4">
         <v>482848550.45013696</v>
       </c>
-      <c r="AI60">
+      <c r="AI60" s="4">
         <v>622242100.18464577</v>
       </c>
-      <c r="AJ60">
+      <c r="AJ60" s="4">
         <v>0.60467000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
         <v>21</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="6">
         <v>5.6813447699999998E-2</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
         <v>-0.98955624497054118</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="6">
         <v>346.92945992083224</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
         <v>0.98341376103797173</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="6">
         <v>3800</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="6">
         <v>4222.8098284172384</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="6">
         <v>4200</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="6">
         <v>4966.798800048623</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="6">
         <v>1750</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="6">
         <v>2206.8980363454461</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61" s="7">
         <v>326.82965859709776</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="6">
         <v>325.68316643560132</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="6">
         <v>337.82361482667375</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="6">
         <v>337.31178094320694</v>
       </c>
-      <c r="U61" s="1">
+      <c r="U61" s="7">
         <v>335.40497216161646</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="6">
         <v>334.75512779134647</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="6">
         <v>11.238494445525507</v>
       </c>
-      <c r="X61">
+      <c r="X61" s="6">
         <v>11.78996518024138</v>
       </c>
-      <c r="Y61">
+      <c r="Y61" s="6">
         <v>4.9946169143619468</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="6">
         <v>5.8798226206137931</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="6">
         <v>53.77</v>
       </c>
-      <c r="AB61">
+      <c r="AB61" s="6">
         <v>20.901049740609086</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="6">
         <v>21.926660182706676</v>
       </c>
-      <c r="AD61">
+      <c r="AD61" s="6">
         <v>9.2888542204983207</v>
       </c>
-      <c r="AE61">
+      <c r="AE61" s="6">
         <v>10.935135987751149</v>
       </c>
-      <c r="AF61">
+      <c r="AF61" s="6">
         <v>273838355.94594562</v>
       </c>
-      <c r="AG61">
+      <c r="AG61" s="6">
         <v>472176437.46707731</v>
       </c>
-      <c r="AH61">
+      <c r="AH61" s="6">
         <v>663935946.05335355</v>
       </c>
-      <c r="AI61">
+      <c r="AI61" s="6">
         <v>448040793.53997678</v>
       </c>
-      <c r="AJ61">
+      <c r="AJ61" s="6">
         <v>0.68110999999999999</v>
       </c>
     </row>
